--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3272994.272294192</v>
+        <v>3270449.679599909</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>74.9929849293728</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>109.9645463939861</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>89.50222024065675</v>
+        <v>107.5567297256354</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.10833718734042</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>164.7009304226955</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>138.9307764574116</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.3306063007477</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>44.59547412467626</v>
       </c>
       <c r="Y6" t="n">
-        <v>169.2327851393826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>106.1987279473143</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.66399984504079</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>103.0982425648422</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>209.7766507866124</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>130.2280544827297</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.14774867940736</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>73.73431546344996</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.24834863187141</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>34.44047701880762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.3923706291104</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>45.66054613217701</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656066</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
@@ -4346,34 +4346,34 @@
         <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T2" t="n">
-        <v>596.4915365985762</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="U2" t="n">
-        <v>596.4915365985762</v>
+        <v>400.7871177554786</v>
       </c>
       <c r="V2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="W2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="X2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="Y2" t="n">
-        <v>407.0717515820915</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.6960655939093</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>485.2430363127824</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>336.3086266515311</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>487.518022609943</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>298.0982375934583</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>298.0982375934583</v>
       </c>
       <c r="W3" t="n">
-        <v>659.6960655939093</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X3" t="n">
-        <v>659.6960655939093</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>659.6960655939093</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910401</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910401</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910401</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910401</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.9600062922736</v>
+        <v>964.2977256010015</v>
       </c>
       <c r="C5" t="n">
-        <v>861.9600062922736</v>
+        <v>797.9331494164605</v>
       </c>
       <c r="D5" t="n">
-        <v>861.9600062922736</v>
+        <v>439.66745080971</v>
       </c>
       <c r="E5" t="n">
-        <v>861.9600062922736</v>
+        <v>53.87919821146575</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026661</v>
+        <v>46.93369746226227</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017214</v>
+        <v>111.670553901723</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674697</v>
+        <v>277.9807166746996</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030751</v>
+        <v>521.2049416030796</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709165</v>
+        <v>823.5081935709225</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.31683658275</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079237</v>
+        <v>1416.413635079247</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.822248332766</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.99497559823</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.99497559823</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="U5" t="n">
-        <v>1333.357011269593</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="V5" t="n">
-        <v>1002.294123926023</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="W5" t="n">
-        <v>861.9600062922736</v>
+        <v>1727.902815837893</v>
       </c>
       <c r="X5" t="n">
-        <v>861.9600062922736</v>
+        <v>1354.437057576813</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.9600062922736</v>
+        <v>964.2977256010015</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377064</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565794</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675764</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675764</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787519</v>
+        <v>61.66788464787589</v>
       </c>
       <c r="K6" t="n">
-        <v>186.157723980606</v>
+        <v>186.1577239806076</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189974</v>
+        <v>399.872217119</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223493</v>
+        <v>668.6238185223533</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352469</v>
+        <v>958.8971200352522</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228324</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906548</v>
+        <v>1401.10027070378</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906548</v>
+        <v>1258.309378699376</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906548</v>
+        <v>1062.768760419131</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906548</v>
+        <v>834.653618374687</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674805</v>
+        <v>599.5015101429442</v>
       </c>
       <c r="W6" t="n">
-        <v>1210.726552674805</v>
+        <v>345.2641534147426</v>
       </c>
       <c r="X6" t="n">
-        <v>1002.875052469272</v>
+        <v>300.2182199554736</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>300.2182199554736</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574674</v>
+        <v>64.24066662574748</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584112</v>
+        <v>132.1299861584126</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347967</v>
+        <v>206.9680378347988</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819536</v>
+        <v>287.8841338195388</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193471</v>
+        <v>342.3101561934743</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857996</v>
+        <v>369.8190495858034</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857996</v>
+        <v>369.8190495858034</v>
       </c>
       <c r="R7" t="n">
-        <v>262.547607214775</v>
+        <v>369.8190495858034</v>
       </c>
       <c r="S7" t="n">
-        <v>262.547607214775</v>
+        <v>369.8190495858034</v>
       </c>
       <c r="T7" t="n">
-        <v>262.547607214775</v>
+        <v>369.8190495858034</v>
       </c>
       <c r="U7" t="n">
-        <v>262.547607214775</v>
+        <v>80.68330868548594</v>
       </c>
       <c r="V7" t="n">
-        <v>262.547607214775</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="W7" t="n">
-        <v>262.547607214775</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.35928974848</v>
+        <v>1314.53933274327</v>
       </c>
       <c r="C8" t="n">
-        <v>806.35928974848</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0935911417295</v>
+        <v>852.1339951821336</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348528</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428181</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809315</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.564220049493</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.098461788413</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.959129812602</v>
+        <v>1314.53933274327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>498.3001248569661</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="C9" t="n">
-        <v>323.847095575839</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D9" t="n">
-        <v>174.9126859145878</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809315</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809315</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1683.584007377306</v>
       </c>
       <c r="T9" t="n">
-        <v>1571.516725807465</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="U9" t="n">
-        <v>1571.516725807465</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="V9" t="n">
-        <v>1336.364617575722</v>
+        <v>1253.721577619539</v>
       </c>
       <c r="W9" t="n">
-        <v>1082.127260847521</v>
+        <v>999.4842208913374</v>
       </c>
       <c r="X9" t="n">
-        <v>874.275760641988</v>
+        <v>791.6327206858045</v>
       </c>
       <c r="Y9" t="n">
-        <v>666.5154618770341</v>
+        <v>583.8724219208507</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.8483030668305</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="D10" t="n">
         <v>43.36919653809315</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>497.4664265514534</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>388.3019303235357</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>388.3019303235357</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>388.3019303235357</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>99.17560929755922</v>
       </c>
       <c r="Y10" t="n">
-        <v>299.4967678970702</v>
+        <v>99.17560929755922</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>398.6787020904383</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>251.7887545925279</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277359</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277359</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>119.2902967703784</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>198.0274703142544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,7 +6452,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7555,16 +7555,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,19 +7731,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>191.2691783702295</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>9.131767663158399</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8635921600918</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778551</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253117</v>
+        <v>270592.3620253148</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231947</v>
+        <v>115410.0540231917</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742644</v>
@@ -26390,10 +26390,10 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881961</v>
+        <v>62913.63765882036</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197522</v>
+        <v>27875.25362197456</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515978</v>
@@ -26418,25 +26418,25 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.4229263456</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687965</v>
-      </c>
       <c r="G4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
@@ -26445,19 +26445,19 @@
         <v>15436.64000687969</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936835</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187941.6748887338</v>
+        <v>-187941.6748887332</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068288</v>
+        <v>185305.0732068262</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098912</v>
+        <v>364125.4669098936</v>
       </c>
       <c r="E6" t="n">
-        <v>8429.562315954216</v>
+        <v>8394.824390518566</v>
       </c>
       <c r="F6" t="n">
-        <v>609872.7698902187</v>
+        <v>609838.0319647826</v>
       </c>
       <c r="G6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="H6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647826</v>
       </c>
       <c r="I6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="J6" t="n">
-        <v>560807.8251616741</v>
+        <v>560773.0872362383</v>
       </c>
       <c r="K6" t="n">
-        <v>546959.1322313991</v>
+        <v>546924.3943059625</v>
       </c>
       <c r="L6" t="n">
-        <v>581997.5162682432</v>
+        <v>581962.7783428084</v>
       </c>
       <c r="M6" t="n">
-        <v>452726.3893386208</v>
+        <v>452691.6514131853</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.7698902187</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902184</v>
+        <v>609838.0319647829</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295061</v>
+        <v>758.8996292950634</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376849</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594704</v>
+        <v>431.9757039594733</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26799,13 +26799,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821564</v>
+        <v>210.4296883821589</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262392</v>
+        <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039891</v>
@@ -26972,13 +26972,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931534</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734843</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931507</v>
+        <v>244.4501167931536</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666909</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931534</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666939</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734843</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>138.450896126834</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>141.2047141710442</v>
       </c>
       <c r="V2" t="n">
         <v>140.226671303815</v>
@@ -27461,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>162.1927629202629</v>
+        <v>144.1382534352842</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>189.6113363027597</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>200.571961348312</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276005</v>
+        <v>92.85788772760013</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425924</v>
+        <v>23.94240680425864</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>210.3101922600014</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937519</v>
+        <v>43.32085084937501</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074803</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.1775110788012</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.44991063792176</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304057</v>
+        <v>30.24193919304025</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589163</v>
+        <v>36.91115760589128</v>
       </c>
       <c r="R7" t="n">
-        <v>9.561588569308086</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>206.4736434787872</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>262.1746492061653</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27904,19 +27904,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>139.4643179308006</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.41702597267127</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904879</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>87.42726521389184</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>93.51250563517787</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>93.36712438634095</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.553251631224176e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108567</v>
+        <v>3.05085278108568</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.937316228671</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520266</v>
+        <v>388.0799144520278</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511773</v>
+        <v>481.4474502511788</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968095</v>
+        <v>535.7030533968112</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610693</v>
+        <v>544.371288861071</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191502</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860974</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634654</v>
+        <v>329.4577782634664</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098735</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898977</v>
+        <v>69.52130774899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403519</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062499</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.221291647594</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.5887514316637</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721898</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658095</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468676</v>
       </c>
       <c r="O6" t="n">
-        <v>388.377624437445</v>
+        <v>388.3776244374463</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872498</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547503</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947718</v>
+        <v>30.32018801947728</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378876</v>
+        <v>6.579516597378896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734528</v>
+        <v>41.15475366734541</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635555</v>
+        <v>96.75348224635586</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162536</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054705</v>
+        <v>61.53307486054725</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830796</v>
+        <v>5.847259438830815</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656345</v>
+        <v>0.07464586517656369</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,22 +32081,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198383</v>
+        <v>77.89141170198468</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070473</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811916</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695368</v>
+        <v>305.3568201695385</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644784</v>
+        <v>314.9582252644801</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974635</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308265</v>
+        <v>207.4834477308279</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890159</v>
+        <v>107.1520883890169</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092682</v>
+        <v>27.38366498092731</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.7473124573047</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923145</v>
+        <v>215.8732253923156</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437912</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635329</v>
+        <v>293.2053550635343</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930006</v>
+        <v>245.7813799930018</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729195</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.3862901687281</v>
+        <v>68.38629016872875</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554455</v>
+        <v>29.98243465554506</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501464</v>
+        <v>68.57507023501529</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230861</v>
+        <v>75.59399159230929</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761548</v>
+        <v>81.73343028761613</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569182</v>
+        <v>54.97578017569245</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235216</v>
+        <v>27.78676100235268</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
